--- a/SSIS_Project/ASS-2/DATA/Data2.xlsx
+++ b/SSIS_Project/ASS-2/DATA/Data2.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SSIS_Practice\SSIS_Project\ass_2\DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SSIS_Practice\SSIS_Project\ASS-2\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5C5C9A-5BB6-4260-B5C9-A5E8D3C796C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59972953-BC3C-417B-83BB-500F9233E31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B8C8636E-CBB3-44A8-983E-A3F28E903E34}"/>
   </bookViews>
   <sheets>
-    <sheet name="DATA" sheetId="1" r:id="rId1"/>
+    <sheet name="DATA2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
